--- a/Excel/Torino/season1_Torino.xlsx
+++ b/Excel/Torino/season1_Torino.xlsx
@@ -620,7 +620,7 @@
         <v>245</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -836,7 +836,7 @@
         <v>213</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -890,7 +890,7 @@
         <v>183</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1106,7 +1106,7 @@
         <v>151</v>
       </c>
       <c r="P12" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1160,7 +1160,7 @@
         <v>141</v>
       </c>
       <c r="P13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1268,7 +1268,7 @@
         <v>107</v>
       </c>
       <c r="P15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1322,7 +1322,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1376,7 +1376,7 @@
         <v>105</v>
       </c>
       <c r="P17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1430,7 +1430,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1538,7 +1538,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1592,7 +1592,7 @@
         <v>89</v>
       </c>
       <c r="P21" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1646,7 +1646,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1754,7 +1754,7 @@
         <v>68</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1862,7 +1862,7 @@
         <v>65</v>
       </c>
       <c r="P26" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1916,7 +1916,7 @@
         <v>60</v>
       </c>
       <c r="P27" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1970,7 +1970,7 @@
         <v>57</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2186,7 +2186,7 @@
         <v>40</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2240,7 +2240,7 @@
         <v>37</v>
       </c>
       <c r="P33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2294,7 +2294,7 @@
         <v>37</v>
       </c>
       <c r="P34" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2402,7 +2402,7 @@
         <v>29</v>
       </c>
       <c r="P36" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2456,7 +2456,7 @@
         <v>28</v>
       </c>
       <c r="P37" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2672,7 +2672,7 @@
         <v>23</v>
       </c>
       <c r="P41" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2726,7 +2726,7 @@
         <v>22</v>
       </c>
       <c r="P42" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2780,7 +2780,7 @@
         <v>20</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2888,7 +2888,7 @@
         <v>19</v>
       </c>
       <c r="P45" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2942,7 +2942,7 @@
         <v>18</v>
       </c>
       <c r="P46" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2996,7 +2996,7 @@
         <v>17</v>
       </c>
       <c r="P47" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">

--- a/Excel/Torino/season1_Torino.xlsx
+++ b/Excel/Torino/season1_Torino.xlsx
@@ -620,7 +620,7 @@
         <v>245</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
@@ -728,7 +728,7 @@
         <v>227</v>
       </c>
       <c r="P5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -782,7 +782,7 @@
         <v>222</v>
       </c>
       <c r="P6" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -836,7 +836,7 @@
         <v>213</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="8">
@@ -890,7 +890,7 @@
         <v>183</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="9">
@@ -944,7 +944,7 @@
         <v>180</v>
       </c>
       <c r="P9" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -998,7 +998,7 @@
         <v>177</v>
       </c>
       <c r="P10" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1106,7 +1106,7 @@
         <v>151</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1160,7 +1160,7 @@
         <v>141</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1268,7 +1268,7 @@
         <v>107</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1322,7 +1322,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
@@ -1376,7 +1376,7 @@
         <v>105</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="18">
@@ -1430,7 +1430,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1538,7 +1538,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="21">
@@ -1592,7 +1592,7 @@
         <v>89</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1646,7 +1646,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1754,7 +1754,7 @@
         <v>68</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="25">
@@ -1862,7 +1862,7 @@
         <v>65</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="27">
@@ -1916,7 +1916,7 @@
         <v>60</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="28">
@@ -1970,7 +1970,7 @@
         <v>57</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29">
@@ -2024,7 +2024,7 @@
         <v>54</v>
       </c>
       <c r="P29" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -2132,7 +2132,7 @@
         <v>41</v>
       </c>
       <c r="P31" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -2186,7 +2186,7 @@
         <v>40</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33">
@@ -2240,7 +2240,7 @@
         <v>37</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2294,7 +2294,7 @@
         <v>37</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="35">
@@ -2348,7 +2348,7 @@
         <v>35</v>
       </c>
       <c r="P35" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -2402,7 +2402,7 @@
         <v>29</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -2456,7 +2456,7 @@
         <v>28</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -2510,7 +2510,7 @@
         <v>28</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2618,7 +2618,7 @@
         <v>26</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41">
@@ -2672,7 +2672,7 @@
         <v>23</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="42">
@@ -2726,7 +2726,7 @@
         <v>22</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -2888,7 +2888,7 @@
         <v>19</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="46">
@@ -2942,7 +2942,7 @@
         <v>18</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -2996,7 +2996,7 @@
         <v>17</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="48">
